--- a/out/BPI12/results/result_2/prova_2.0_windows.xlsx
+++ b/out/BPI12/results/result_2/prova_2.0_windows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moret\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C239790A-BE65-451D-8FC9-B7273043CD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EDC0664-46C6-4324-A48B-2A852D48B53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{54841A03-5009-43B1-BA78-E43B18488EC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{57A6712C-681A-4DBD-8380-E18EA8E80FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -330,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -651,15 +652,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB38946-0513-4C3E-8986-8150D1EE032E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D6374-07DF-466E-8BA5-AFB18648063C}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.77734375" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -732,7 +736,7 @@
       <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -747,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -783,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -810,7 +814,7 @@
         <f t="shared" ref="Y2:Y23" si="0">SUM(B2:W2)</f>
         <v>2</v>
       </c>
-      <c r="Z2" s="23">
+      <c r="Z2" s="27">
         <f>1-B2/Y2</f>
         <v>1</v>
       </c>
@@ -826,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -862,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -883,13 +887,13 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="Z3" s="27">
         <f>1-C3/Y3</f>
         <v>1</v>
       </c>
@@ -905,49 +909,49 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="I4">
+        <v>154</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4">
         <v>119</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>96</v>
-      </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -956,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
         <v>798</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="Z4" s="27">
         <f>1-D4/Y4</f>
-        <v>0.89598997493734334</v>
+        <v>0.88095238095238093</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -984,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" s="25">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1020,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1041,15 +1045,15 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="27">
         <f>1-E5/Y5</f>
-        <v>0.83216783216783219</v>
+        <v>0.94405594405594406</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -1063,50 +1067,50 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5">
+        <v>559</v>
+      </c>
+      <c r="G6">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>41</v>
+      </c>
+      <c r="I6">
+        <v>92</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>21</v>
       </c>
-      <c r="F6" s="5">
-        <v>614</v>
-      </c>
-      <c r="G6">
-        <v>55</v>
-      </c>
-      <c r="H6">
-        <v>28</v>
-      </c>
-      <c r="I6">
-        <v>85</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
+      <c r="P6">
+        <v>41</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="P6">
-        <v>55</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>6</v>
-      </c>
       <c r="S6">
         <v>0</v>
       </c>
@@ -1114,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
         <v>957</v>
       </c>
-      <c r="Z6" s="23">
+      <c r="Z6" s="27">
         <f>1-F6/Y6</f>
-        <v>0.35841170323928939</v>
+        <v>0.41588296760710552</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -1142,49 +1146,49 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>268</v>
+      </c>
+      <c r="G7" s="6">
+        <v>595</v>
+      </c>
+      <c r="H7">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>79</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>685</v>
-      </c>
-      <c r="G7" s="6">
-        <v>224</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>71</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>8</v>
-      </c>
       <c r="P7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1193,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
         <v>1116</v>
       </c>
-      <c r="Z7" s="23">
+      <c r="Z7" s="27">
         <f>1-G7/Y7</f>
-        <v>0.79928315412186379</v>
+        <v>0.46684587813620071</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -1221,22 +1225,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F8">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7">
-        <v>1825</v>
+        <v>1861</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1257,13 +1261,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1278,15 +1282,15 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
         <v>2084</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="Z8" s="27">
         <f>1-H8/Y8</f>
-        <v>0.12428023032629554</v>
+        <v>0.10700575815738966</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -1300,25 +1304,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I9" s="8">
-        <v>5672</v>
+        <v>5944</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1333,39 +1337,39 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="P9">
-        <v>335</v>
+        <v>132</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
         <v>6389</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="Z9" s="27">
         <f>1-I9/Y9</f>
-        <v>0.11222413523243069</v>
+        <v>6.9650962591954912E-2</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -1379,28 +1383,28 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>961</v>
+        <v>985</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1412,16 +1416,16 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1430,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1442,9 +1446,9 @@
         <f t="shared" si="0"/>
         <v>1073</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="Z10" s="27">
         <f>1-J10/Y10</f>
-        <v>1</v>
+        <v>0.99627213420316874</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -1458,72 +1462,72 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="O11">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="P11">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="Z11" s="27">
         <f>1-K11/Y11</f>
-        <v>0.98979591836734693</v>
+        <v>0.99708454810495628</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -1537,72 +1541,72 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L12" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O12">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="P12">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="Z12" s="23">
+      <c r="Z12" s="27">
         <f>1-L12/Y12</f>
-        <v>0.99416909620991256</v>
+        <v>0.99708454810495628</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -1616,72 +1620,72 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <v>143</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
         <v>3</v>
       </c>
-      <c r="M13" s="12">
-        <v>6</v>
-      </c>
-      <c r="N13">
-        <v>5</v>
-      </c>
-      <c r="O13">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>261</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>43</v>
-      </c>
-      <c r="P13">
-        <v>25</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>289</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>10</v>
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="Z13" s="23">
+      <c r="Z13" s="27">
         <f>1-M13/Y13</f>
-        <v>0.99125364431486884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -1695,72 +1699,72 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14" s="13">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="O14">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="P14">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>317</v>
+        <v>182</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="Z14" s="23">
+      <c r="Z14" s="27">
         <f>1-N14/Y14</f>
-        <v>0.97521865889212833</v>
+        <v>0.94169096209912539</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -1774,72 +1778,72 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="G15">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15">
-        <v>1131</v>
+        <v>914</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O15" s="14">
-        <v>310</v>
+        <v>862</v>
       </c>
       <c r="P15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Q15">
         <v>6</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U15">
-        <v>802</v>
+        <v>564</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="Y15">
         <f t="shared" si="0"/>
         <v>2546</v>
       </c>
-      <c r="Z15" s="23">
+      <c r="Z15" s="27">
         <f>1-O15/Y15</f>
-        <v>0.87824037706205815</v>
+        <v>0.66142969363707782</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -1853,25 +1857,25 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1883,42 +1887,42 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="P16" s="15">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16">
         <f t="shared" si="0"/>
         <v>1067</v>
       </c>
-      <c r="Z16" s="23">
+      <c r="Z16" s="27">
         <f>1-P16/Y16</f>
-        <v>0.79194001874414244</v>
+        <v>0.77507029053420806</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -1932,31 +1936,31 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>30</v>
       </c>
       <c r="I17">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1965,39 +1969,39 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="16">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>70</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>2</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>58</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
         <v>289</v>
       </c>
-      <c r="Z17" s="23">
+      <c r="Z17" s="27">
         <f>1-Q17/Y17</f>
-        <v>0.99307958477508651</v>
+        <v>0.98961937716262971</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
@@ -2011,22 +2015,22 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I18">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2044,16 +2048,16 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" s="17">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2062,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18">
         <f t="shared" si="0"/>
         <v>553</v>
       </c>
-      <c r="Z18" s="23">
+      <c r="Z18" s="27">
         <f>1-R18/Y18</f>
-        <v>0.72694394213381552</v>
+        <v>0.78842676311030746</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
@@ -2093,16 +2097,16 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2126,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2153,7 +2157,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="Z19" s="23">
+      <c r="Z19" s="27">
         <f>1-S19/Y19</f>
         <v>1</v>
       </c>
@@ -2169,28 +2173,28 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2202,16 +2206,16 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="P20">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2220,19 +2224,19 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y20">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="Z20" s="23">
+      <c r="Z20" s="27">
         <f>1-T20/Y20</f>
         <v>0.99606299212598426</v>
       </c>
@@ -2248,72 +2252,72 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="G21">
+        <v>36</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>898</v>
+      </c>
+      <c r="J21">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>318</v>
+      </c>
+      <c r="P21">
+        <v>73</v>
+      </c>
+      <c r="Q21">
         <v>15</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1085</v>
-      </c>
-      <c r="J21">
-        <v>4</v>
-      </c>
-      <c r="K21">
-        <v>15</v>
-      </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="M21">
-        <v>9</v>
-      </c>
-      <c r="N21">
-        <v>6</v>
-      </c>
-      <c r="O21">
-        <v>99</v>
-      </c>
-      <c r="P21">
-        <v>181</v>
-      </c>
-      <c r="Q21">
-        <v>16</v>
-      </c>
       <c r="R21">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U21" s="20">
-        <v>1766</v>
+        <v>1849</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Y21">
         <f t="shared" si="0"/>
         <v>3439</v>
       </c>
-      <c r="Z21" s="23">
+      <c r="Z21" s="27">
         <f>1-U21/Y21</f>
-        <v>0.48647862750799653</v>
+        <v>0.46234370456528062</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
@@ -2327,23 +2331,23 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>4</v>
       </c>
-      <c r="I22">
-        <v>7</v>
-      </c>
       <c r="J22">
         <v>0</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -2369,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2378,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="21">
         <v>0</v>
@@ -2390,7 +2394,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Z22" s="23">
+      <c r="Z22" s="27">
         <f>1-V22/Y22</f>
         <v>1</v>
       </c>
@@ -2406,49 +2410,49 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H23">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I23">
-        <v>642</v>
+        <v>427</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>30</v>
+      </c>
+      <c r="O23">
+        <v>71</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23">
         <v>3</v>
       </c>
-      <c r="N23">
-        <v>10</v>
-      </c>
-      <c r="O23">
-        <v>19</v>
-      </c>
-      <c r="P23">
-        <v>63</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="R23">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2457,94 +2461,97 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23" s="22">
-        <v>495</v>
+        <v>994</v>
       </c>
       <c r="Y23">
         <f t="shared" si="0"/>
         <v>1981</v>
       </c>
-      <c r="Z23" s="23">
+      <c r="Z23" s="27">
         <f>1-W23/Y23</f>
-        <v>0.75012619888944976</v>
-      </c>
+        <v>0.49823321554770317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B24" s="24"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:W25" si="1">SUM(B2:B23)</f>
+        <f>SUM(B2:B23)</f>
         <v>0</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C25:W25" si="1">SUM(C2:C23)</f>
         <v>0</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>356</v>
+        <v>657</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>2731</v>
+        <v>1488</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>424</v>
+        <v>985</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>2388</v>
+        <v>2559</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>11576</v>
+        <v>10985</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M25">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>697</v>
+        <v>2119</v>
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
-        <v>1262</v>
+        <v>787</v>
       </c>
       <c r="Q25">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>297</v>
       </c>
       <c r="S25">
         <f t="shared" si="1"/>
@@ -2552,11 +2559,11 @@
       </c>
       <c r="T25">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="U25">
         <f t="shared" si="1"/>
-        <v>4642</v>
+        <v>3955</v>
       </c>
       <c r="V25">
         <f t="shared" si="1"/>
@@ -2564,7 +2571,7 @@
       </c>
       <c r="W25">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>1408</v>
       </c>
       <c r="Y25">
         <f>SUM(Y2:Y23)</f>
@@ -2585,63 +2592,63 @@
       </c>
       <c r="D27">
         <f>D4/Y4</f>
-        <v>0.10401002506265664</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="E27">
         <f>E5/Y5</f>
-        <v>0.16783216783216784</v>
+        <v>5.5944055944055944E-2</v>
       </c>
       <c r="F27">
         <f>F6/Y6</f>
-        <v>0.64158829676071061</v>
+        <v>0.58411703239289448</v>
       </c>
       <c r="G27">
         <f>G7/Y7</f>
-        <v>0.20071684587813621</v>
+        <v>0.53315412186379929</v>
       </c>
       <c r="H27">
         <f>H8/Y8</f>
-        <v>0.87571976967370446</v>
+        <v>0.89299424184261034</v>
       </c>
       <c r="I27">
         <f>I9/Y9</f>
-        <v>0.88777586476756931</v>
+        <v>0.93034903740804509</v>
       </c>
       <c r="J27">
         <f>J10/Y10</f>
-        <v>0</v>
+        <v>3.727865796831314E-3</v>
       </c>
       <c r="K27">
         <f>K11/Y11</f>
-        <v>1.020408163265306E-2</v>
+        <v>2.9154518950437317E-3</v>
       </c>
       <c r="L27">
         <f>L12/Y12</f>
-        <v>5.8309037900874635E-3</v>
+        <v>2.9154518950437317E-3</v>
       </c>
       <c r="M27">
         <f>M13/Y13</f>
-        <v>8.7463556851311956E-3</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <f>N14/Y14</f>
-        <v>2.478134110787172E-2</v>
+        <v>5.8309037900874633E-2</v>
       </c>
       <c r="O27">
         <f>O15/Y15</f>
-        <v>0.12175962293794187</v>
+        <v>0.33857030636292224</v>
       </c>
       <c r="P27">
         <f>P16/Y16</f>
-        <v>0.20805998125585753</v>
+        <v>0.22492970946579194</v>
       </c>
       <c r="Q27">
         <f>Q17/Y17</f>
-        <v>6.920415224913495E-3</v>
+        <v>1.0380622837370242E-2</v>
       </c>
       <c r="R27">
         <f>R18/Y18</f>
-        <v>0.27305605786618448</v>
+        <v>0.2115732368896926</v>
       </c>
       <c r="S27">
         <f>S19/Y19</f>
@@ -2653,7 +2660,7 @@
       </c>
       <c r="U27">
         <f>U21/Y21</f>
-        <v>0.51352137249200347</v>
+        <v>0.53765629543471938</v>
       </c>
       <c r="V27">
         <f>V22/Y22</f>
@@ -2661,11 +2668,11 @@
       </c>
       <c r="W27">
         <f>W23/Y23</f>
-        <v>0.24987380111055021</v>
+        <v>0.50176678445229683</v>
       </c>
       <c r="Y27">
         <f>(B27*Y2+C27*Y3+D27*Y4+E27*Y5+F27*Y6+G27*Y7+H27*Y8+I27*Y9+J27*Y10+K27*Y11+L27*Y12+M27*Y13+N27*Y14+O27*Y15+P27*Y16+Q27*Y17+R27*Y18+S27*Y19+T27*Y20+U27*Y21+V27*Y22+W27*Y23)/Y25</f>
-        <v>0.44722417978231932</v>
+        <v>0.5158562367864693</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -2682,63 +2689,63 @@
       </c>
       <c r="D28">
         <f>D4/D25</f>
-        <v>0.23314606741573032</v>
+        <v>0.14459665144596651</v>
       </c>
       <c r="E28">
         <f>E5/E25</f>
-        <v>0.12244897959183673</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F28">
         <f>F6/F25</f>
-        <v>0.22482607103625046</v>
+        <v>0.37567204301075269</v>
       </c>
       <c r="G28">
         <f>G7/G25</f>
-        <v>0.52830188679245282</v>
+        <v>0.60406091370558379</v>
       </c>
       <c r="H28">
         <f>H8/H25</f>
-        <v>0.7642378559463987</v>
+        <v>0.72723720203204378</v>
       </c>
       <c r="I28">
         <f>I9/I25</f>
-        <v>0.48997926744989634</v>
+        <v>0.54110150204824758</v>
       </c>
       <c r="J28">
         <f>J10/J25</f>
-        <v>0</v>
+        <v>7.8431372549019607E-2</v>
       </c>
       <c r="K28">
         <f>K11/K25</f>
-        <v>0.12962962962962962</v>
+        <v>0.4</v>
       </c>
       <c r="L28">
         <f>L12/L25</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="M28">
+        <v>0.5</v>
+      </c>
+      <c r="M28" t="e">
         <f>M13/M25</f>
-        <v>0.16666666666666666</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N28">
         <f>N14/N25</f>
-        <v>0.29310344827586204</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="O28">
         <f>O15/O25</f>
-        <v>0.44476327116212339</v>
+        <v>0.40679565832940068</v>
       </c>
       <c r="P28">
         <f>P16/P25</f>
-        <v>0.17591125198098256</v>
+        <v>0.30495552731893266</v>
       </c>
       <c r="Q28">
         <f>Q17/Q25</f>
-        <v>5.4054054054054057E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R28">
         <f>R18/R25</f>
-        <v>0.351981351981352</v>
+        <v>0.39393939393939392</v>
       </c>
       <c r="S28" t="e">
         <f>S19/S25</f>
@@ -2746,11 +2753,11 @@
       </c>
       <c r="T28">
         <f>T20/T25</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U28">
         <f>U21/U25</f>
-        <v>0.38043946574752263</v>
+        <v>0.46750948166877371</v>
       </c>
       <c r="V28" t="e">
         <f>V22/V25</f>
@@ -2758,11 +2765,11 @@
       </c>
       <c r="W28">
         <f>W23/W25</f>
-        <v>0.82499999999999996</v>
+        <v>0.70596590909090906</v>
       </c>
       <c r="Y28">
-        <f>(0*Y2+0*Y3+D28*Y4+E28*Y5+F28*Y6+G28*Y7+H28*Y8+I28*Y9+0*Y10+K28*Y11+L28*Y12+M28*Y13+N28*Y14+O28*Y15+P28*Y16+Q28*Y17+R28*Y18+0*Y19+T28*Y20+U28*Y21+0*Y22+W28*Y23)/Y25</f>
-        <v>0.42072653577521035</v>
+        <f>(0*Y2+0*Y3+D28*Y4+E28*Y5+F28*Y6+G28*Y7+H28*Y8+I28*Y9+0*Y10+K28*Y11+L28*Y12+0*Y13+N28*Y14+O28*Y15+P28*Y16+Q28*Y17+R28*Y18+0*Y19+T28*Y20+U28*Y21+0*Y22+W28*Y23)/Y25</f>
+        <v>0.45458390005116844</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -2779,63 +2786,63 @@
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>0.14384748700173311</v>
+        <v>0.13058419243986255</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>0.1415929203539823</v>
+        <v>7.441860465116279E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>0.33297180043383945</v>
+        <v>0.45725971370143154</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>0.29090909090909089</v>
+        <v>0.56639695383150879</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>0.81618962432915931</v>
+        <v>0.80163687271160888</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>0.63145004174784303</v>
-      </c>
-      <c r="J29" t="e">
+        <v>0.68424081961551741</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>7.1174377224199276E-3</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>5.7887120115774236E-3</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>5.7971014492753624E-3</v>
+      </c>
+      <c r="M29" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="2"/>
-        <v>1.8918918918918916E-2</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="2"/>
-        <v>1.1299435028248586E-2</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="2"/>
-        <v>1.662049861495845E-2</v>
-      </c>
       <c r="N29">
         <f t="shared" si="2"/>
-        <v>4.5698924731182797E-2</v>
+        <v>9.8765432098765413E-2</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
-        <v>0.1911810052420598</v>
+        <v>0.36956055734190779</v>
       </c>
       <c r="P29">
         <f t="shared" si="2"/>
-        <v>0.19063975955345641</v>
+        <v>0.25889967637540451</v>
       </c>
       <c r="Q29">
         <f t="shared" si="2"/>
-        <v>1.2269938650306749E-2</v>
+        <v>1.846153846153846E-2</v>
       </c>
       <c r="R29">
         <f t="shared" si="2"/>
-        <v>0.30753564154786156</v>
+        <v>0.2752941176470588</v>
       </c>
       <c r="S29" t="e">
         <f t="shared" si="2"/>
@@ -2843,11 +2850,11 @@
       </c>
       <c r="T29">
         <f t="shared" si="2"/>
-        <v>7.2992700729927005E-3</v>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="U29">
         <f t="shared" si="2"/>
-        <v>0.43707461947778742</v>
+        <v>0.50013524479307558</v>
       </c>
       <c r="V29" t="e">
         <f t="shared" si="2"/>
@@ -2855,11 +2862,11 @@
       </c>
       <c r="W29">
         <f t="shared" si="2"/>
-        <v>0.38357225881441304</v>
+        <v>0.58660371791088806</v>
       </c>
       <c r="Y29">
         <f>(2*Y27*Y28)/(Y27+Y28)</f>
-        <v>0.43357088484882639</v>
+        <v>0.48328574032041699</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -2867,8 +2874,8 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <f>(0*Y2+0*Y3+D29*Y4+E29*Y5+F29*Y6+G29*Y7+H29*Y8+I29*Y9+0*Y10+K29*Y11+L29*Y12+M29*Y13+N29*Y14+O29*Y15+P29*Y16+Q29*Y17+R29*Y18+0*Y19+T29*Y20+U29*Y21+0*Y22+W29*Y23)/Y25</f>
-        <v>0.37998919467111464</v>
+        <f>(0*Y2+0*Y3+D29*Y4+E29*Y5+F29*Y6+G29*Y7+H29*Y8+I29*Y9+J29*Y10+K29*Y11+L29*Y12+0*Y13+N29*Y14+O29*Y15+P29*Y16+Q29*Y17+R29*Y18+0*Y19+T29*Y20+U29*Y21+0*Y22+W29*Y23)/Y25</f>
+        <v>0.45293163717458729</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
@@ -2877,7 +2884,7 @@
       </c>
       <c r="B32">
         <f>(B2+C3+D4+E5+F6+G7+H8+I9+J10+K11+L12+M13+N14+O15+P16+Q17+R18+S19+T20+U21+V22+W23)/Y25</f>
-        <v>0.44722417978231932</v>
+        <v>0.5158562367864693</v>
       </c>
     </row>
   </sheetData>

--- a/out/BPI12/results/result_2/prova_2.0_windows.xlsx
+++ b/out/BPI12/results/result_2/prova_2.0_windows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moret\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/result_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EDC0664-46C6-4324-A48B-2A852D48B53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E175C7-F4B6-2741-A624-F21934ED5D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{57A6712C-681A-4DBD-8380-E18EA8E80FE2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" xr2:uid="{57A6712C-681A-4DBD-8380-E18EA8E80FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -655,18 +655,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D6374-07DF-466E-8BA5-AFB18648063C}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.77734375" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" customWidth="1"/>
+    <col min="26" max="26" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0.88095238095238093</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>0.94405594405594406</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0.41588296760710552</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0.46684587813620071</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0.10700575815738966</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>6.9650962591954912E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>0.99627213420316874</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>0.99708454810495628</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>0.99708454810495628</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>0.94169096209912539</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0.66142969363707782</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>0.77507029053420806</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>0.98961937716262971</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>0.78842676311030746</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0.99606299212598426</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>19</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>0.46234370456528062</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>21</v>
       </c>
@@ -2478,10 +2478,10 @@
         <v>0.49823321554770317</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B24" s="24"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2578,9 +2578,9 @@
         <v>25542</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <f>B2/Y2</f>
@@ -2675,9 +2675,9 @@
         <v>0.5158562367864693</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="26" t="e">
         <f>B2/B25</f>
@@ -2772,7 +2772,7 @@
         <v>0.45458390005116844</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0.48328574032041699</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0.45293163717458729</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
